--- a/misc/2015-16-Phi contact list.xlsx
+++ b/misc/2015-16-Phi contact list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Contact List</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>Gray &amp; Sheryl</t>
+  </si>
+  <si>
+    <t>Bachtelle</t>
+  </si>
+  <si>
+    <t>Troy &amp; Liz</t>
+  </si>
+  <si>
+    <t>661-285-8864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">troyliz4@icloud.com </t>
   </si>
 </sst>
 </file>
@@ -471,17 +483,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -646,6 +659,23 @@
       </c>
       <c r="E12" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -658,6 +688,7 @@
     <hyperlink ref="E10" r:id="rId6"/>
     <hyperlink ref="E11" r:id="rId7"/>
     <hyperlink ref="E12" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
